--- a/3.6/Evaluation_Classic.xlsx
+++ b/3.6/Evaluation_Classic.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD6FD9D-C8B2-4C13-93F5-1F4C41526D88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EAC935-FB63-409F-9753-7F5ED121308C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-1530" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metriken" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Kategorie</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Frage</t>
   </si>
   <si>
-    <t>Ist die Entwicklung schnell zu erlernen?</t>
-  </si>
-  <si>
     <t>Kann die Anwendung schnell umgesetzt werden?</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Wie viele Frameworks werden benötigt?</t>
   </si>
   <si>
-    <t>Anzahl genutzter Frameworks</t>
-  </si>
-  <si>
     <t>Können die Frameworks einfach genutzt und eingebunden werden?</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>Normalisiertes Ergebnis</t>
   </si>
   <si>
-    <t>Entwicklung: Ordinalskala (sehr gut, gut, schlecht)</t>
-  </si>
-  <si>
     <t>Erleichterung durch Frameworks: Ordinalskala (sehr gut, gut, schlecht)</t>
   </si>
   <si>
@@ -249,6 +240,30 @@
   </si>
   <si>
     <t>Verschlüsselung der Daten: Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Anzahl genutzter Frameworks/Bibliotheken</t>
+  </si>
+  <si>
+    <t>sehr gut</t>
+  </si>
+  <si>
+    <t>leicht umsetzbar</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>wenig</t>
+  </si>
+  <si>
+    <t>manuell</t>
+  </si>
+  <si>
+    <t>Erlernbarkeit: Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Sind die Entwicklungswerkzeuge schnell zu erlernen?</t>
   </si>
 </sst>
 </file>
@@ -393,86 +408,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,477 +785,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="22"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7">
+      <c r="A4" s="23"/>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9">
+      <c r="A5" s="23"/>
+      <c r="B5" s="21">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="22">
+        <v>80</v>
+      </c>
+      <c r="E5" s="14">
         <v>3</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="20">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>65</v>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="22">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14">
         <v>5</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7">
+      <c r="A10" s="24"/>
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="20">
-        <v>6</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="19">
-        <v>7</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7">
-        <v>7</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="E12" s="13">
         <v>8</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>68</v>
+      <c r="F12" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9">
+      <c r="A13" s="23"/>
+      <c r="B13" s="21">
         <v>8</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="22">
+        <v>57</v>
+      </c>
+      <c r="E13" s="14">
         <v>9</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="20">
         <v>9</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="D15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="15">
         <v>10</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>69</v>
+      <c r="F15" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7">
+      <c r="A17" s="23"/>
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="13">
         <v>11</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>45</v>
+      <c r="F17" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9">
+      <c r="A18" s="23"/>
+      <c r="B18" s="21">
         <v>11</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="22">
+        <v>44</v>
+      </c>
+      <c r="E18" s="14">
         <v>12</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7">
+      <c r="A20" s="24"/>
+      <c r="B20" s="4">
         <v>12</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="13">
+        <v>13</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="12">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="13">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>15</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="20">
-        <v>13</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10">
-        <v>13</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="19">
-        <v>14</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
-        <v>14</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="E23" s="15">
+        <v>16</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="20">
-        <v>15</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>15</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="21">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20">
         <v>16</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="C25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8">
-        <v>16</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="21">
+      <c r="E25" s="15">
         <v>17</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>47</v>
+      <c r="F25" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7">
+      <c r="A27" s="23"/>
+      <c r="B27" s="4">
         <v>17</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="13">
+        <v>18</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="4">
+        <v>18</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="13">
+        <v>19</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="20">
-        <v>18</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="E29" s="12">
+        <v>20</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="6">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7">
-        <v>18</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="20">
-        <v>19</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10">
-        <v>19</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="19">
-        <v>20</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="11">
-        <v>20</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="E30" s="13">
         <v>21</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>75</v>
+      <c r="F30" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,18 +1268,27 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -1279,28 +1303,19 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1311,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3ECF3-CD24-491F-B6FE-28374C49E45B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,364 +1339,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>3</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+        <v>79</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="C11" s="30">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>6</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>8</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>9</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>10</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>11</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>12</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>13</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>14</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>15</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>16</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>17</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>18</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>19</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>20</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>21</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A43:A44"/>
@@ -1698,78 +1825,6 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.6/Evaluation_Classic.xlsx
+++ b/3.6/Evaluation_Classic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EAC935-FB63-409F-9753-7F5ED121308C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE31B28A-3219-410D-ACF7-6E88A7B7C3AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-1530" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>Kategorie</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Wiederverwendung von bestehenden Komponenten</t>
   </si>
   <si>
-    <t>Kosten</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -113,15 +110,9 @@
     <t>Verschlüsselung von Datenbankeinträgen</t>
   </si>
   <si>
-    <t>Betriebskosten</t>
-  </si>
-  <si>
     <t>Messung der Entwicklungszeit</t>
   </si>
   <si>
-    <t>LoC für die Umsetzung einer Funktionalität</t>
-  </si>
-  <si>
     <t>Frage</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>Besteht die Möglichkeit eines automatischen Deployments?</t>
   </si>
   <si>
-    <t>Wie viel Code ist zur Implementierung einer Funktionalität notwenig?</t>
-  </si>
-  <si>
     <t>Können die Tests lokal ausgeführt werden?</t>
   </si>
   <si>
@@ -158,21 +146,12 @@
     <t>Wie lange benötigt die Ausführung aller Testfälle?</t>
   </si>
   <si>
-    <t>Zeitmessung</t>
-  </si>
-  <si>
     <t>Ist Testautomatisierung möglich?</t>
   </si>
   <si>
     <t>Können bestehende Komponenten wiederverwendet werden?</t>
   </si>
   <si>
-    <t>Wie viel kostet der Betrieb?</t>
-  </si>
-  <si>
-    <t>Hochrechnung der Betriebskosten</t>
-  </si>
-  <si>
     <t>Müssen bestehende Komponenten angepasst werden?</t>
   </si>
   <si>
@@ -218,21 +197,12 @@
     <t>Toolunterstützung für Deployment: Ordinalskala (verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
   <si>
-    <t>Automatisches Deployment: Ja, Nein</t>
-  </si>
-  <si>
-    <t>lokale Testausführung: Ordinalskala (sehr gut, gut, schlecht)</t>
-  </si>
-  <si>
     <t>Testautomatisierung: Ordinalskala (verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
   <si>
     <t>Wiederverwendbarkeit: Ordinalskala (sehr gut, gut, schlecht)</t>
   </si>
   <si>
-    <t>Anpassbarkeit: Ordinalskala(gar nicht, wenig, stark)</t>
-  </si>
-  <si>
     <t>Anpassung an Lastzunahme: Ordinalskala(automatisch, manuell, nicht möglich)</t>
   </si>
   <si>
@@ -251,9 +221,6 @@
     <t>leicht umsetzbar</t>
   </si>
   <si>
-    <t>ja</t>
-  </si>
-  <si>
     <t>wenig</t>
   </si>
   <si>
@@ -264,6 +231,36 @@
   </si>
   <si>
     <t>Sind die Entwicklungswerkzeuge schnell zu erlernen?</t>
+  </si>
+  <si>
+    <t>Automatisches Deployment: Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>2,5 AT</t>
+  </si>
+  <si>
+    <t>Wie viel Code ist zur Implementierung der ersten Funktionalität notwenig?</t>
+  </si>
+  <si>
+    <t>LoC für die Umsetzung der ersten Funktionalität</t>
+  </si>
+  <si>
+    <t>Wie viel Code ist zur Implementierung einer weiteren Funktionalität notwenig?</t>
+  </si>
+  <si>
+    <t>LoC für die Umsetzung einer weiteren Funktionalität</t>
+  </si>
+  <si>
+    <t>Beeinträchtigung des bestehenden Codes bei Erweiterungen: Ordinalskala(gar nicht, wenig, stark)</t>
+  </si>
+  <si>
+    <t>Lokale Testausführung: Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Zeitmessung der Ausführungsdauer</t>
+  </si>
+  <si>
+    <t>Messung der Antwortzeit</t>
   </si>
 </sst>
 </file>
@@ -295,20 +292,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -399,94 +387,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -769,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,22 +781,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -811,511 +807,496 @@
       <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="21">
         <v>1</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>31</v>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="4">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="F10" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="12">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F12" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="12">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="E13" s="11">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="14">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="19">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="13">
-        <v>6</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="12">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="13">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21">
-        <v>8</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="14">
-        <v>9</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="20">
-        <v>9</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>41</v>
+      <c r="D15" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="15">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>66</v>
+      <c r="F15" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4">
-        <v>10</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20">
+        <v>9</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="21">
         <v>11</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>43</v>
+      <c r="F17" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="21">
+      <c r="B18" s="19"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="12">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19">
         <v>11</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="15">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="3">
         <v>12</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="4">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="12">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
         <v>13</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="11">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="3">
         <v>14</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="4">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="13">
-        <v>15</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20">
-        <v>15</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="D24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="12">
         <v>16</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="20">
+        <v>15</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="20">
-        <v>16</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="21">
         <v>17</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>45</v>
+      <c r="F25" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="4">
-        <v>17</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="12">
         <v>18</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>54</v>
+      <c r="F27" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
-      <c r="B28" s="4">
-        <v>18</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="B28" s="3">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="12">
         <v>19</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>70</v>
+      <c r="F28" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>18</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>19</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="11">
         <v>20</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>71</v>
+      <c r="F29" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
-      <c r="B30" s="6">
-        <v>20</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>56</v>
+      <c r="B30" s="5">
+        <v>19</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E30" s="13">
         <v>21</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1327,12 +1308,12 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1340,16 +1321,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,407 +1343,424 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="31">
+        <v>49</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="B7" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="29">
+        <v>16</v>
+      </c>
+      <c r="D7" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="B9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="30">
-        <v>2</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0.8</v>
+      <c r="B11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="30">
-        <v>1</v>
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0.5</v>
+      <c r="D15" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>8</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="30">
-        <v>1</v>
+      <c r="D17" s="29">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>9</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>10</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="30">
-        <v>1</v>
-      </c>
+      <c r="B21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>11</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="B23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>12</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="B25" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>13</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="B27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>14</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="30">
-        <v>0.5</v>
-      </c>
+      <c r="B29" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>15</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="30">
-        <v>1</v>
+      <c r="B31" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>16</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>17</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="B35" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>18</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>19</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="30">
+      <c r="B39" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="29">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>20</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="B41" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>21</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C15:C16"/>
@@ -1772,42 +1770,35 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -1824,7 +1815,7 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.6/Evaluation_Classic.xlsx
+++ b/3.6/Evaluation_Classic.xlsx
@@ -3,25 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE31B28A-3219-410D-ACF7-6E88A7B7C3AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C21CF-48AA-43EC-843A-2122316460D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-1530" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metriken" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>Kategorie</t>
   </si>
@@ -161,12 +167,6 @@
     <t>Wird Lastzunahme angemessen ausgeglichen?</t>
   </si>
   <si>
-    <t>Wie viele Daten können in einer bestimmen Zeitspanne vom System verarbeitet werden?</t>
-  </si>
-  <si>
-    <t>Messung des Durchsatzes in einer bestimmten Zeitspanne</t>
-  </si>
-  <si>
     <t>Kann ein angemessener Zugriffsschutz implementiert werden?</t>
   </si>
   <si>
@@ -261,6 +261,21 @@
   </si>
   <si>
     <t>Messung der Antwortzeit</t>
+  </si>
+  <si>
+    <t>59 s</t>
+  </si>
+  <si>
+    <t>Wie viele Daten können in einer bestimmten Zeitspanne vom System verarbeitet werden?</t>
+  </si>
+  <si>
+    <t>Messung des Durchsatzes bei 10.000 Anfragen mit 255 echt parallelen Clients</t>
+  </si>
+  <si>
+    <t>1593,8 Anfragen/sec</t>
+  </si>
+  <si>
+    <t>19 ms</t>
   </si>
 </sst>
 </file>
@@ -292,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -383,11 +398,231 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +666,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -438,20 +676,17 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,26 +699,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +1104,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
@@ -807,92 +1117,92 @@
       <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="19"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="19">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="15">
+        <v>70</v>
+      </c>
+      <c r="E4" s="16">
         <v>2</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="14"/>
       <c r="D6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="12">
         <v>3</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="19">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="15">
+        <v>67</v>
+      </c>
+      <c r="E7" s="16">
         <v>4</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -901,7 +1211,7 @@
       <c r="B9" s="20">
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -911,29 +1221,29 @@
         <v>5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -951,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -971,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -989,34 +1299,34 @@
         <v>9</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="19">
+      <c r="B15" s="21">
         <v>8</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="15">
+        <v>48</v>
+      </c>
+      <c r="E15" s="16">
         <v>10</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -1025,25 +1335,25 @@
       <c r="B17" s="20">
         <v>9</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>11</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>77</v>
+      <c r="F17" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1066,7 +1376,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="19">
+      <c r="B20" s="21">
         <v>11</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -1075,19 +1385,19 @@
       <c r="D20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="16">
         <v>13</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1105,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1125,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1143,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,25 +1463,25 @@
       <c r="B25" s="20">
         <v>15</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>17</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>79</v>
+      <c r="F25" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1183,13 +1493,13 @@
         <v>24</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E27" s="12">
         <v>18</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1207,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1221,13 +1531,13 @@
         <v>27</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="11">
         <v>20</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1239,13 +1549,13 @@
         <v>28</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="13">
         <v>21</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1268,16 +1578,14 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A2:A8"/>
@@ -1289,9 +1597,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
@@ -1307,424 +1617,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3ECF3-CD24-491F-B6FE-28374C49E45B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>52</v>
+      <c r="A1" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="53">
+        <v>49</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="56"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="37">
+        <v>16</v>
+      </c>
+      <c r="D7" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>5</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="37">
+        <v>2</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="43"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="C15" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="29">
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>8</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="43"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>9</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="43"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>10</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="37">
+        <v>8</v>
+      </c>
+      <c r="D21" s="43">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="31">
-        <v>49</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>3</v>
-      </c>
-      <c r="B7" s="30" t="s">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="44"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>11</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C23" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>12</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="37">
+        <v>20</v>
+      </c>
+      <c r="D25" s="43"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="43"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>13</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="43"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>14</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="43"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>15</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="43"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
         <v>16</v>
       </c>
-      <c r="D7" s="29">
+      <c r="B33" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="29">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="44"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>17</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>5</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="29">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="43"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>18</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>19</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="44"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>20</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="43"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>21</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="29">
-        <v>2</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>7</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <v>8</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="D43" s="43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>9</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>10</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <v>11</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>12</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
-        <v>13</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <v>14</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
-        <v>15</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>16</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>17</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
-        <v>18</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
-        <v>19</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>20</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
-        <v>21</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -1750,6 +2088,7 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D15:D16"/>
@@ -1759,7 +2098,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C17:C18"/>
@@ -1772,8 +2110,8 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="C35:C36"/>
@@ -1784,8 +2122,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="D43:D44"/>
@@ -1800,6 +2136,8 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A43:A44"/>

--- a/3.6/Evaluation_Classic.xlsx
+++ b/3.6/Evaluation_Classic.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C21CF-48AA-43EC-843A-2122316460D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E075D-4B1A-41CF-A0A6-022253C3E04F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-1530" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metriken" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Kategorie</t>
   </si>
@@ -663,41 +663,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,89 +786,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,63 +1111,63 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="22">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="21">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="9" t="s">
         <v>72</v>
       </c>
@@ -1179,39 +1179,39 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="16">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1225,29 +1225,29 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="16">
         <v>6</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4">
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1303,61 +1303,61 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20">
         <v>8</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="16">
         <v>10</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>9</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="22">
         <v>11</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="3">
         <v>10</v>
       </c>
@@ -1375,33 +1375,33 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="21">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20">
         <v>11</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="16">
         <v>13</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3">
         <v>12</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4">
@@ -1439,7 +1439,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3">
         <v>14</v>
       </c>
@@ -1457,35 +1457,35 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>15</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="22">
         <v>17</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="3">
         <v>16</v>
       </c>
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="3">
         <v>17</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="4">
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="5">
         <v>19</v>
       </c>
@@ -1560,32 +1560,11 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A2:A8"/>
@@ -1602,11 +1581,32 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3ECF3-CD24-491F-B6FE-28374C49E45B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,498 +1630,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="43">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="39">
         <v>49</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="37">
         <v>0.6</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="45">
         <v>16</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="27">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="45">
         <v>2</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="34">
         <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>7</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="26">
         <v>8</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="43">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>9</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="27">
         <v>10</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="45">
         <v>8</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="34">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="44"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="26">
         <v>11</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="27">
         <v>12</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="45">
         <v>20</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="34">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="27">
         <v>13</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="34">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="27">
         <v>14</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="44"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="26">
         <v>15</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="43">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="43"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="A33" s="27">
         <v>16</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="26">
         <v>17</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="43"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="27">
         <v>18</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="43"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="27">
         <v>19</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="34">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="44"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="26">
         <v>20</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="43"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="A43" s="27">
         <v>21</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="34">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="44"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="D43:D44"/>
@@ -2138,22 +2106,62 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
